--- a/testdata/testdataexcel.xlsx
+++ b/testdata/testdataexcel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Appium\TestAutomationProject\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GmxAutomation\TestAutomationProject\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B5A6EC-6390-48BD-9BEE-6DB713B7D049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0E79E7-3CC8-4017-AFF3-4363FE280462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,64 +25,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Serial</t>
+    <t>Username</t>
   </si>
   <si>
-    <t>TestCase</t>
+    <t>Password</t>
   </si>
   <si>
-    <t>Steps</t>
+    <t>angelika.strehmel@gmx.de</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Test Case 1</t>
-  </si>
-  <si>
-    <t>Test Case 2</t>
-  </si>
-  <si>
-    <t>Test Case 3</t>
-  </si>
-  <si>
-    <t>Test Case 4</t>
-  </si>
-  <si>
-    <t>Step 1</t>
-  </si>
-  <si>
-    <t>Step 2</t>
-  </si>
-  <si>
-    <t>Step 3</t>
-  </si>
-  <si>
-    <t>Step 4</t>
-  </si>
-  <si>
-    <t>Automated</t>
-  </si>
-  <si>
-    <t>Not Automated</t>
-  </si>
-  <si>
-    <t>In Progress</t>
-  </si>
-  <si>
-    <t>Test Case 5</t>
-  </si>
-  <si>
-    <t>Step 5</t>
+    <t>4567jkj878745</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +56,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,8 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,104 +370,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>